--- a/Data Sheet/Résultats Banc de Test (Jordi ROUBICHOU et Mathias SOULIER).xlsx
+++ b/Data Sheet/Résultats Banc de Test (Jordi ROUBICHOU et Mathias SOULIER).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc6bc325e90e7782/Documents/CC_Seby_2021/Data Sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46079926-28CD-4E12-B403-1FACD6E16CF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{46079926-28CD-4E12-B403-1FACD6E16CF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{792864BE-A275-44D3-A6AF-BC8006BA2990}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{ABD5CF85-CA4D-4344-87B1-28E291EFB8BC}"/>
   </bookViews>
@@ -4057,8 +4057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44DA6B0-2502-074B-9464-0DD0BDA5B364}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4221,7 +4221,7 @@
         <v>1.704347826086957E-2</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" si="0"/>
+        <f>(-$L$22/(2*(G4+($L$22/2))))</f>
         <v>-8.7242382096345897E-3</v>
       </c>
       <c r="I4" s="5">

--- a/Data Sheet/Résultats Banc de Test (Jordi ROUBICHOU et Mathias SOULIER).xlsx
+++ b/Data Sheet/Résultats Banc de Test (Jordi ROUBICHOU et Mathias SOULIER).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc6bc325e90e7782/Documents/CC_Seby_2021/Data Sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{46079926-28CD-4E12-B403-1FACD6E16CF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{792864BE-A275-44D3-A6AF-BC8006BA2990}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{46079926-28CD-4E12-B403-1FACD6E16CF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{313678A8-BB12-4BD4-9F35-E20817B5A8F8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{ABD5CF85-CA4D-4344-87B1-28E291EFB8BC}"/>
   </bookViews>
@@ -4058,7 +4058,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4181,7 +4181,7 @@
         <v>1.2022727272727272E-2</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" si="0"/>
+        <f>(-$L$22/(2*(G3+($L$22/2))))</f>
         <v>-1.2322628827483195E-2</v>
       </c>
       <c r="I3" s="5"/>
@@ -4234,11 +4234,11 @@
         <v>0.59299999999999997</v>
       </c>
       <c r="L4" s="5">
-        <f t="shared" ref="L4:L8" si="4">I4/$I$8</f>
+        <f>I4/$I$8</f>
         <v>0.75939849624060152</v>
       </c>
       <c r="M4" s="5">
-        <f t="shared" ref="M4:M8" si="5">J4/$J$8</f>
+        <f t="shared" ref="M4:M8" si="4">J4/$J$8</f>
         <v>0.93975903614457834</v>
       </c>
       <c r="N4" s="5">
@@ -4284,11 +4284,11 @@
         <v>0.61099999999999999</v>
       </c>
       <c r="L5" s="5">
+        <f t="shared" ref="L5:L8" si="5">I5/$I$8</f>
+        <v>0.83609022556390977</v>
+      </c>
+      <c r="M5" s="5">
         <f t="shared" si="4"/>
-        <v>0.83609022556390977</v>
-      </c>
-      <c r="M5" s="5">
-        <f t="shared" si="5"/>
         <v>0.95783132530120474</v>
       </c>
       <c r="N5" s="5">
@@ -4338,7 +4338,7 @@
         <v>0.88721804511278191</v>
       </c>
       <c r="M6" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.9718875502008032</v>
       </c>
       <c r="N6" s="5">
@@ -4388,7 +4388,7 @@
         <v>0.93984962406015038</v>
       </c>
       <c r="M7" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.98594377510040154</v>
       </c>
       <c r="N7" s="5">
@@ -4429,11 +4429,11 @@
         <v>0.66700000000000004</v>
       </c>
       <c r="L8" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M8" s="5">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M8" s="5">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N8" s="5">
@@ -4467,7 +4467,7 @@
         <v>0.1613333333333333</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" ref="H9:H14" si="7">($L$22/(2*(G9+($L$22/2))))</f>
+        <f>($L$22/(2*(G9+($L$22/2))))</f>
         <v>9.2888843017855304E-4</v>
       </c>
       <c r="I9" s="5">
@@ -4519,7 +4519,7 @@
         <v>4.7531249999999997E-2</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="H9:H14" si="7">($L$22/(2*(G10+($L$22/2))))</f>
         <v>3.1458906802988595E-3</v>
       </c>
       <c r="I10" s="5">

--- a/Data Sheet/Résultats Banc de Test (Jordi ROUBICHOU et Mathias SOULIER).xlsx
+++ b/Data Sheet/Résultats Banc de Test (Jordi ROUBICHOU et Mathias SOULIER).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc6bc325e90e7782/Documents/CC_Seby_2021/Data Sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{46079926-28CD-4E12-B403-1FACD6E16CF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{313678A8-BB12-4BD4-9F35-E20817B5A8F8}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{46079926-28CD-4E12-B403-1FACD6E16CF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{881AA42F-5439-427C-86A5-98C9724F4614}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{ABD5CF85-CA4D-4344-87B1-28E291EFB8BC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="31545" windowHeight="16515" xr2:uid="{ABD5CF85-CA4D-4344-87B1-28E291EFB8BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -4058,7 +4058,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4519,7 +4519,7 @@
         <v>4.7531249999999997E-2</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" ref="H9:H14" si="7">($L$22/(2*(G10+($L$22/2))))</f>
+        <f t="shared" ref="H10:H14" si="7">($L$22/(2*(G10+($L$22/2))))</f>
         <v>3.1458906802988595E-3</v>
       </c>
       <c r="I10" s="5">

--- a/Data Sheet/Résultats Banc de Test (Jordi ROUBICHOU et Mathias SOULIER).xlsx
+++ b/Data Sheet/Résultats Banc de Test (Jordi ROUBICHOU et Mathias SOULIER).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc6bc325e90e7782/Documents/CC_Seby_2021/Data Sheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Documents\4A\CC_Seby_2021\Data Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{46079926-28CD-4E12-B403-1FACD6E16CF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{881AA42F-5439-427C-86A5-98C9724F4614}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE14333-CAA6-4645-AAFB-5727275F6787}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="31545" windowHeight="16515" xr2:uid="{ABD5CF85-CA4D-4344-87B1-28E291EFB8BC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="31545" windowHeight="16515" activeTab="2" xr2:uid="{ABD5CF85-CA4D-4344-87B1-28E291EFB8BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -3630,7 +3630,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{5382838A-0061-2A41-94CA-3371622A3954}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="176" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3641,7 +3641,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{EADB823B-E249-E64F-8C96-C51A6339339C}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="176" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3652,7 +3652,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{44F3B655-E425-4EDE-B95B-0BAB73BA85A6}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="176" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3663,7 +3663,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9303111" cy="6072187"/>
+    <xdr:ext cx="9304587" cy="6077107"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1">
@@ -3696,7 +3696,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9303111" cy="6072187"/>
+    <xdr:ext cx="9304587" cy="6077107"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1">
@@ -3729,7 +3729,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9303111" cy="6072187"/>
+    <xdr:ext cx="9304587" cy="6077107"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1">
@@ -4057,7 +4057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44DA6B0-2502-074B-9464-0DD0BDA5B364}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>

--- a/Data Sheet/Résultats Banc de Test (Jordi ROUBICHOU et Mathias SOULIER).xlsx
+++ b/Data Sheet/Résultats Banc de Test (Jordi ROUBICHOU et Mathias SOULIER).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Documents\4A\CC_Seby_2021\Data Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc6bc325e90e7782/Documents/CC_Seby_2021/Data Sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE14333-CAA6-4645-AAFB-5727275F6787}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE14333-CAA6-4645-AAFB-5727275F6787}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="31545" windowHeight="16515" activeTab="2" xr2:uid="{ABD5CF85-CA4D-4344-87B1-28E291EFB8BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{ABD5CF85-CA4D-4344-87B1-28E291EFB8BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -3630,7 +3630,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{5382838A-0061-2A41-94CA-3371622A3954}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3663,7 +3663,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304587" cy="6077107"/>
+    <xdr:ext cx="9297865" cy="6066692"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1">
